--- a/ReportContent/Group Contribution.xlsx
+++ b/ReportContent/Group Contribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Learning\Web Application 2019\Project\Mobile-Shop\ReportContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC119AE-EBF9-4119-B1BE-891E97D3BCE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65773845-C613-432E-B04B-F374C6BB08F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7B732E6A-F906-47E0-AD05-A84F4CE2446F}"/>
   </bookViews>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Đỗ Thái Anh Huy</t>
   </si>
   <si>
-    <t>ERD</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -47,15 +44,6 @@
     <t>Task Detail</t>
   </si>
   <si>
-    <t>Create database</t>
-  </si>
-  <si>
-    <t>Collect database</t>
-  </si>
-  <si>
-    <t>Modify database</t>
-  </si>
-  <si>
     <t>Main Task</t>
   </si>
   <si>
@@ -75,24 +63,6 @@
   </si>
   <si>
     <t>Hồ Thanh Hoài</t>
-  </si>
-  <si>
-    <t>Use Case Diagram</t>
-  </si>
-  <si>
-    <t>Use Case Documentation</t>
-  </si>
-  <si>
-    <t>Sequence Diagram</t>
-  </si>
-  <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
-    <t>Analysis and Design</t>
-  </si>
-  <si>
-    <t>Query database</t>
   </si>
   <si>
     <t>Front-end</t>
@@ -140,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -281,20 +251,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,9 +263,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,36 +279,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,22 +293,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919C5F5F-73F7-46AE-A35A-6A115963CE25}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -714,271 +663,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B4" s="25"/>
       <c r="C4" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3">
-        <v>20</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4">
-        <v>100</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4">
-        <v>100</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4">
-        <v>100</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="5">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
+        <v>70</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>100</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6">
+        <f>SUM(C4:C7)</f>
+        <v>240</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUM(D4:D7)</f>
+        <v>160</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>80</v>
-      </c>
-      <c r="D9" s="4">
-        <v>20</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="7">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7">
+        <v>40</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4">
-        <v>50</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
-        <v>100</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4">
-        <v>100</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4">
-        <v>50</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4">
-        <v>50</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="6">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6">
-        <v>80</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="7">
-        <f>SUM(C4:C15)</f>
-        <v>930</v>
-      </c>
-      <c r="D16" s="7">
-        <f>SUM(D4:D15)</f>
-        <v>270</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="8">
-        <f>C16 / SUM(C16:E16) * 100</f>
-        <v>77.5</v>
-      </c>
-      <c r="D17" s="8">
-        <f>D16 / SUM(C16:E16) * 100</f>
-        <v>22.5</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="5:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
